--- a/Deliveribles OUT PUT Files/LOST TIME TEST_jun-22_clean.xlsx
+++ b/Deliveribles OUT PUT Files/LOST TIME TEST_jun-22_clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ygebremedhin\OneDrive - Schlumberger\GitHub\Lost_Time_table_data_Akoji\Deliveribles OUT PUT Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slb001-my.sharepoint.com/personal/ygebremedhin_slb_com/Documents/GitHub/Lost_Time_table_data_Akoji/Deliveribles OUT PUT Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB32B2-F4C3-40B5-8CE1-C6A395E4670E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{25AB32B2-F4C3-40B5-8CE1-C6A395E4670E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5E4D667C-8E18-4A9E-ABAB-72577E294EAB}"/>
   <bookViews>
-    <workbookView xWindow="23052" yWindow="-4296" windowWidth="30708" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4404" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean Jun-22" sheetId="1" r:id="rId1"/>
@@ -11392,8 +11392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
+      <selection activeCell="E924" sqref="E924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
